--- a/Docs/Requirements_List.xlsx
+++ b/Docs/Requirements_List.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Func List" sheetId="1" r:id="rId1"/>
     <sheet name="Module" sheetId="2" r:id="rId2"/>
+    <sheet name="RestAPI" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Func List'!$A$1:$A$54</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <extLst/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>优先级</t>
   </si>
@@ -160,39 +165,6 @@
 4. 查看他人阅读页(他人主页)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他人主页</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复用学生端1.0学生首页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，只能看不能改</t>
-    </r>
-  </si>
-  <si>
     <t>1.2.2最新活动</t>
   </si>
   <si>
@@ -310,9 +282,6 @@
   <si>
     <t>1. 以时间轴为单位显示已经读过的书(即认证过的书)及相关测验结果
 2. 生成阅读报告参见客户提供的prototyping和&lt;&lt;个人阅读报告_学生端参考&gt;&gt;，路径为/Docs/</t>
-  </si>
-  <si>
-    <t>http://8eyr00.axshare.com/#p=我的阅读报告</t>
   </si>
   <si>
     <t>次先</t>
@@ -342,40 +311,6 @@
 2.1推荐给个人的书分为选读和必读，推荐的书都学生书架，
 2.2推荐给公众的书不到学生书架，只显示在选书页面中的热门推荐
 2.3选书的时候，可以对书籍标记即归类，规则参见客户提供的prototyping</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐书籍即</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选书复用学生端1.1.1.5选书+归类书籍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-http://8eyr00.axshare.com/#p=图书关联大纲</t>
-    </r>
   </si>
   <si>
     <t>2.1.3我的奖励</t>
@@ -574,34 +509,66 @@
   <si>
     <t>按照模板切换不同主题，颜色，人物形象等</t>
   </si>
+  <si>
+    <r>
+      <t>他人主页</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria (主题标题)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复用学生端1.0学生首页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria (主题标题)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，只能看不能改</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>推荐书籍即</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria (主题标题)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选书复用学生端1.1.1.5选书+归类书籍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria (主题标题)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+http://8eyr00.axshare.com/#p=图书关联大纲</t>
+    </r>
+  </si>
+  <si>
+    <t>http://8eyr00.axshare.com/#p=我的阅读报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -617,8 +584,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Cambria (主题标题)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Cambria (主题标题)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color indexed="12"/>
+      <name val="Cambria (主题标题)"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -640,16 +628,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,34 +645,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -693,49 +666,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1034,6 +1004,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1066,930 +1037,962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.4380952380952" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="103.219047619048" customWidth="1"/>
-    <col min="5" max="5" width="52.4380952380952" customWidth="1"/>
-    <col min="6" max="6" width="29.552380952381" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" ht="60" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="48" hidden="1" outlineLevel="1">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="60" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:6" ht="48" hidden="1" outlineLevel="1">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="75" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" hidden="1" outlineLevel="1">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="45" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:6" ht="36" hidden="1" outlineLevel="1">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" collapsed="1" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" collapsed="1">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" ht="60" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="48" hidden="1" outlineLevel="1">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" hidden="1" outlineLevel="1">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" ht="30" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" collapsed="1">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" collapsed="1" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" collapsed="1">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" collapsed="1" spans="1:6">
-      <c r="A23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="48" hidden="1" outlineLevel="1">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="60" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" collapsed="1">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" collapsed="1" spans="1:6">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" collapsed="1">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" collapsed="1" spans="1:6">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="48" hidden="1" outlineLevel="1">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" ht="60" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" collapsed="1">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" ht="30" collapsed="1" spans="1:6">
-      <c r="A32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" s="3" customFormat="1"/>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="24" hidden="1" outlineLevel="1">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" ht="30" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" hidden="1" outlineLevel="1">
+      <c r="A37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" ht="75" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" hidden="1" outlineLevel="1">
+      <c r="A38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" hidden="1" outlineLevel="1">
+      <c r="A39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="30" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" collapsed="1">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" ht="30" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" collapsed="1" spans="1:6">
-      <c r="A40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="60">
+      <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" ht="75" spans="1:6">
-      <c r="A41" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="10" t="s">
+      <c r="D43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="D44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" collapsed="1">
+      <c r="A45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" collapsed="1" spans="1:6">
-      <c r="A45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="E50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:6">
-      <c r="A54" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="10" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A54"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" display="http://8eyr00.axshare.com/#p=我的阅读报告"/>
-    <hyperlink ref="E4" r:id="rId1" display="http://8eyr00.axshare.com/#p=个人中心（学生首页）"/>
+    <hyperlink ref="E32" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1047619047619" customWidth="1"/>
-    <col min="2" max="2" width="59.552380952381" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="96">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="24">
+      <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" ht="118.5" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="72">
+      <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" ht="30" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="108">
+      <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" ht="90" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="24">
+      <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" ht="135" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="24">
+      <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" ht="30" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="24">
+      <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" ht="30" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="36">
+      <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" ht="30" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" ht="45" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>